--- a/biology/Zoologie/Coregonus_artedi/Coregonus_artedi.xlsx
+++ b/biology/Zoologie/Coregonus_artedi/Coregonus_artedi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cisco de lac, Corégone cisco
-Coregonus artedi, le Cisco de lac[1] ou Corégone cisco[1], est une espèce nord-américaine de corégones d'eau douce de la famille des salmonidés[2].
+Coregonus artedi, le Cisco de lac ou Corégone cisco, est une espèce nord-américaine de corégones d'eau douce de la famille des salmonidés.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce taxon se rencontre au Canada et aux États-Unis[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon se rencontre au Canada et aux États-Unis.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (13 avril 2023)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (13 avril 2023) :
 Leucichthys artedi annensis Koelz, 1931
 Leucichthys artedi artedi Lesueur, 1818
 Leucichthys artedi atikamek Koelz, 1931
@@ -592,11 +608,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Coregonus artedi Lesueur, 1818[4].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Cisco de lac[4], Corégone cisco[4].
-Coregonus artedi a pour synonymes[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Coregonus artedi Lesueur, 1818.
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Cisco de lac, Corégone cisco.
+Coregonus artedi a pour synonymes :
 Argyrosomus artedi (Lesueur, 1818)
 Argyrosomus eriensis Jordan &amp; Evermann, 1909
 Argyrosomus huronius Jordan &amp; Evermann, 1909
@@ -647,9 +665,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'étymologie de l'épithète spécifique, artedi, est incertaine mais pourrait avoir été donnée en l'honneur du naturaliste suédois Peter Artedi (1705-1735), considéré comme le père de l'ichtyologie[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de l'épithète spécifique, artedi, est incertaine mais pourrait avoir été donnée en l'honneur du naturaliste suédois Peter Artedi (1705-1735), considéré comme le père de l'ichtyologie.
 </t>
         </is>
       </c>
@@ -678,7 +698,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Charles Alexandre Lesueur et Charles Alexandre Lesueur, « Descriptions of several new species of North American fishes », Journal of the Academy of Natural Sciences of Philadelphia, vol. 1, no 2,‎ 1818, p. 222-235 (lire en ligne, consulté le 1er juin 2024)</t>
         </is>
